--- a/用例数据/沪银行/兑息/子股东/测试结果.xlsx
+++ b/用例数据/沪银行/兑息/子股东/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="262">
   <si>
     <t>EXCHID</t>
   </si>
@@ -347,9 +347,6 @@
     <t>OCCURTIME</t>
   </si>
   <si>
-    <t>20221216000000</t>
-  </si>
-  <si>
     <t>10000</t>
   </si>
   <si>
@@ -734,27 +731,12 @@
     <t>OTHERFEE4</t>
   </si>
   <si>
-    <t>30051999</t>
-  </si>
-  <si>
     <t>005_005_002</t>
   </si>
   <si>
-    <t>20221216235959</t>
-  </si>
-  <si>
-    <t>20221217162414</t>
-  </si>
-  <si>
     <t>CCB1</t>
   </si>
   <si>
-    <t>000011721200</t>
-  </si>
-  <si>
-    <t>焦振鹏主股东</t>
-  </si>
-  <si>
     <t>99990</t>
   </si>
   <si>
@@ -764,18 +746,12 @@
     <t>6200.000</t>
   </si>
   <si>
-    <t>908327078.870</t>
-  </si>
-  <si>
     <t>A9</t>
   </si>
   <si>
     <t>99998</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
     <t>99999</t>
   </si>
   <si>
@@ -791,9 +767,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>000007100474</t>
-  </si>
-  <si>
     <t>NONDVP</t>
   </si>
   <si>
@@ -810,6 +783,30 @@
   </si>
   <si>
     <t>705</t>
+  </si>
+  <si>
+    <t>20230209000000</t>
+  </si>
+  <si>
+    <t>30002376</t>
+  </si>
+  <si>
+    <t>20230209235959</t>
+  </si>
+  <si>
+    <t>20230210084837</t>
+  </si>
+  <si>
+    <t>-657514463.560</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>000007125495</t>
   </si>
 </sst>
 </file>
@@ -1138,12 +1135,12 @@
   <dimension ref="A1:CH20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1400,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -1441,7 +1438,7 @@
         <v>97</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>98</v>
+        <v>240</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>95</v>
@@ -1609,7 +1606,7 @@
         <v>97</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>98</v>
+        <v>240</v>
       </c>
       <c r="BR2" s="1" t="s">
         <v>106</v>
@@ -1663,24 +1660,24 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1693,12 +1690,12 @@
   <dimension ref="A1:CA30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
@@ -1937,9 +1934,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>87</v>
@@ -1969,7 +1966,7 @@
         <v>94</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>96</v>
@@ -1978,7 +1975,7 @@
         <v>98</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>98</v>
+        <v>240</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>95</v>
@@ -2128,7 +2125,7 @@
         <v>98</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>98</v>
+        <v>240</v>
       </c>
       <c r="BM2" s="1" t="s">
         <v>106</v>
@@ -2176,34 +2173,34 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2215,23 +2212,23 @@
   <dimension ref="A1:EI18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>107</v>
@@ -2240,22 +2237,22 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -2273,405 +2270,405 @@
         <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="DK1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="DL1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="EI1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>242</v>
+        <v>88</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>243</v>
+        <v>90</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>92</v>
@@ -2689,7 +2686,7 @@
         <v>101</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>102</v>
@@ -2698,22 +2695,22 @@
         <v>94</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>98</v>
@@ -2755,25 +2752,25 @@
         <v>98</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>101</v>
       </c>
       <c r="AR2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>97</v>
@@ -2782,7 +2779,7 @@
         <v>98</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>94</v>
@@ -2794,19 +2791,19 @@
         <v>86</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="BI2" s="1" t="s">
         <v>105</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>98</v>
@@ -2815,10 +2812,10 @@
         <v>94</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>94</v>
@@ -2830,10 +2827,10 @@
         <v>98</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="BW2" s="1" t="s">
         <v>86</v>
@@ -2845,7 +2842,7 @@
         <v>86</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>98</v>
@@ -2863,28 +2860,28 @@
         <v>94</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>103</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="DC2" s="1" t="s">
         <v>98</v>
@@ -2893,16 +2890,16 @@
         <v>98</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>103</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>98</v>
@@ -2950,7 +2947,7 @@
         <v>98</v>
       </c>
       <c r="EC2" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="ED2" s="1" t="s">
         <v>98</v>
@@ -2962,28 +2959,28 @@
         <v>94</v>
       </c>
       <c r="EH2" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="EI2" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
